--- a/public/spreadsheets/Week 2;.xlsx
+++ b/public/spreadsheets/Week 2;.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickstigsell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A6BCEA-7D05-FF45-9B4E-F4CC2DEB1C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781BD40-D446-E544-A0D8-B4C6CFE75E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="860" windowWidth="14980" windowHeight="16920" xr2:uid="{E5A893EA-7D07-4363-8558-9984C8A0723C}"/>
+    <workbookView xWindow="1540" yWindow="860" windowWidth="28420" windowHeight="16920" xr2:uid="{E5A893EA-7D07-4363-8558-9984C8A0723C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="46">
   <si>
     <t>Rick</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>Jake</t>
-  </si>
-  <si>
-    <t>CHRGRS</t>
-  </si>
-  <si>
-    <t>MIN</t>
   </si>
   <si>
     <t>CHARGERS</t>
@@ -702,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="159" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1582,7 @@
         <v>38</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -1686,20 +1680,20 @@
       <c r="D33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>45</v>
+      <c r="E33" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>45</v>
+      <c r="G33" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>45</v>
+      <c r="I33" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>42</v>
@@ -1708,7 +1702,7 @@
         <v>42</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>

--- a/public/spreadsheets/Week 2;.xlsx
+++ b/public/spreadsheets/Week 2;.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickstigsell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickstigsell/dev/football-pool/public/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781BD40-D446-E544-A0D8-B4C6CFE75E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11CC34-4698-6440-9304-361A04C22F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="860" windowWidth="28420" windowHeight="16920" xr2:uid="{E5A893EA-7D07-4363-8558-9984C8A0723C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
   <si>
     <t>Rick</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Jake</t>
-  </si>
-  <si>
-    <t>CHARGERS</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="159" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1699,7 @@
         <v>42</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
